--- a/Brisbane Spreadsheet.xlsx
+++ b/Brisbane Spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelkingston/Documents/GitHub/ZeroW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E43552-48BA-6A4A-8CCC-668A0037404F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A061EE-8133-614E-8F8F-29687FE607E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14360" activeTab="1" xr2:uid="{48DD7E15-A996-B04E-8BE1-72C2B12731CF}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14360" xr2:uid="{48DD7E15-A996-B04E-8BE1-72C2B12731CF}"/>
   </bookViews>
   <sheets>
     <sheet name="General to-do" sheetId="4" r:id="rId1"/>
@@ -853,9 +853,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A385A926-4F49-FF4F-99A0-97F90D9B2827}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1080,7 +1080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3823C0C1-0ADA-F342-AD63-8F6B0B9F1647}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="142" workbookViewId="0">
+    <sheetView zoomScale="142" workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
